--- a/Agedcare.xlsx
+++ b/Agedcare.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t xml:space="preserve">Transaction ID</t>
   </si>
@@ -209,6 +209,9 @@
     <t xml:space="preserve">Matilda Kerr</t>
   </si>
   <si>
+    <t xml:space="preserve">LoginUrl</t>
+  </si>
+  <si>
     <t xml:space="preserve">Location</t>
   </si>
   <si>
@@ -219,6 +222,9 @@
   </si>
   <si>
     <t xml:space="preserve">Select Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://staging.strongroom.ai/login</t>
   </si>
   <si>
     <t xml:space="preserve">Internal Testing</t>
@@ -345,7 +351,7 @@
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -756,46 +762,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:E2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="B1" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>67</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Agedcare.xlsx
+++ b/Agedcare.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Configuration" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Signature" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t xml:space="preserve">Transaction ID</t>
   </si>
@@ -237,6 +238,15 @@
   </si>
   <si>
     <t xml:space="preserve">Internal Facility - West Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN/Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeshan.naidoo@strongroom.ai</t>
   </si>
 </sst>
 </file>
@@ -246,7 +256,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -267,6 +277,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,7 +328,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,6 +343,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -351,7 +376,7 @@
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -764,11 +789,11 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -820,4 +845,52 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>1111</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="valeshan.naidoo@strongroom.ai"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Agedcare.xlsx
+++ b/Agedcare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Table Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
   <si>
     <t xml:space="preserve">Transaction ID</t>
   </si>
@@ -51,6 +51,18 @@
     <t xml:space="preserve">Balance</t>
   </si>
   <si>
+    <t xml:space="preserve">Credentials Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credentials Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credentials Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
     <t xml:space="preserve">5e26790f-e97b-47a9-978b-e42b5915acbc</t>
   </si>
   <si>
@@ -66,6 +78,18 @@
     <t xml:space="preserve">Arvind Nath</t>
   </si>
   <si>
+    <t xml:space="preserve">sam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strongroompassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Facility - West Ward</t>
+  </si>
+  <si>
     <t xml:space="preserve">40334233-18a9-4ca6-96a8-001718ec55e3</t>
   </si>
   <si>
@@ -213,9 +237,6 @@
     <t xml:space="preserve">LoginUrl</t>
   </si>
   <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
     <t xml:space="preserve">Username/email</t>
   </si>
   <si>
@@ -226,18 +247,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://staging.strongroom.ai/login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strongroompassword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Facility - West Ward</t>
   </si>
   <si>
     <t xml:space="preserve">Username</t>
@@ -370,13 +379,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:J19"/>
+  <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -386,6 +395,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="24.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,22 +428,34 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="3" t="n">
@@ -439,22 +463,34 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
+      <c r="K2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="3" t="n">
@@ -462,22 +498,34 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="3" t="n">
@@ -485,22 +533,34 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
+      <c r="K4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="3" t="n">
@@ -508,22 +568,34 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="3" t="n">
@@ -531,22 +603,34 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
+      <c r="K6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="3" t="n">
@@ -554,22 +638,34 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
+      <c r="K7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="3" t="n">
@@ -577,22 +673,34 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
+      <c r="K8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="3" t="n">
@@ -600,22 +708,34 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
+      <c r="K9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="3" t="n">
@@ -623,22 +743,34 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
+      <c r="K10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="3" t="n">
@@ -646,22 +778,34 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
+      <c r="K11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="3" t="n">
@@ -669,22 +813,34 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
+      <c r="K12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="3" t="n">
@@ -692,22 +848,34 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
+      <c r="K13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="3" t="n">
@@ -715,22 +883,34 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
+      <c r="K14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="3" t="n">
@@ -738,22 +918,34 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
+      <c r="K15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="3" t="n">
@@ -761,6 +953,18 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
+      <c r="K16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="2"/>
@@ -790,10 +994,10 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -804,36 +1008,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -854,11 +1058,11 @@
   </sheetPr>
   <dimension ref="B1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.65"/>
@@ -867,15 +1071,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>1111</v>

--- a/Agedcare.xlsx
+++ b/Agedcare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -381,11 +381,11 @@
   </sheetPr>
   <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -993,11 +993,11 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -1062,7 +1062,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.65"/>

--- a/Agedcare.xlsx
+++ b/Agedcare.xlsx
@@ -381,11 +381,11 @@
   </sheetPr>
   <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -994,10 +994,10 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -1059,10 +1059,10 @@
   <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.65"/>

--- a/Agedcare.xlsx
+++ b/Agedcare.xlsx
@@ -385,7 +385,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -994,10 +994,10 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -1062,7 +1062,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.65"/>

--- a/Agedcare.xlsx
+++ b/Agedcare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Table Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
   <si>
     <t xml:space="preserve">Transaction ID</t>
   </si>
@@ -99,19 +99,16 @@
     <t xml:space="preserve">Facility 3</t>
   </si>
   <si>
+    <t xml:space="preserve">54eb5c05-efe3-4feb-b599-314ecc93cfb9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(bromocriptine) bromocriptine 5 mg capsule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External facility</t>
+  </si>
+  <si>
     <t xml:space="preserve">Windsor Charles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54eb5c05-efe3-4feb-b599-314ecc93cfb9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(bromocriptine) bromocriptine 5 mg capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External facility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilbur Smith</t>
   </si>
   <si>
     <t xml:space="preserve">2aa9cdef-0d43-444f-95eb-e4a4c77ca455</t>
@@ -381,11 +378,11 @@
   </sheetPr>
   <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.15"/>
@@ -490,7 +487,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="3" t="n">
@@ -513,19 +510,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="3" t="n">
@@ -548,19 +545,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>33</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="3" t="n">
@@ -583,19 +580,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="3" t="n">
@@ -618,19 +615,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="3" t="n">
@@ -653,19 +650,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="3" t="n">
@@ -688,10 +685,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -700,7 +697,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="3" t="n">
@@ -723,19 +720,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="3" t="n">
@@ -758,19 +755,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="3" t="n">
@@ -793,10 +790,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
@@ -805,7 +802,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="3" t="n">
@@ -828,19 +825,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="3" t="n">
@@ -863,19 +860,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>62</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="3" t="n">
@@ -898,19 +895,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="3" t="n">
@@ -933,19 +930,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="3" t="n">
@@ -993,11 +990,11 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -1008,24 +1005,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>20</v>
@@ -1059,10 +1056,10 @@
   <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.65"/>
@@ -1071,15 +1068,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>1111</v>
